--- a/line.xlsx
+++ b/line.xlsx
@@ -126,7 +126,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -137,7 +137,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Line Chart</a:t>
+              <a:t>Bilancio</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -164,7 +164,7 @@
             <symbol val="triangle"/>
             <spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
@@ -174,539 +174,9 @@
               </a:ln>
             </spPr>
           </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$2:$B$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="100050">
-              <a:solidFill>
-                <a:srgbClr val="00AAAA"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$2:$C$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$D$2:$D$13</f>
-            </numRef>
-          </val>
-          <smooth val="1"/>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Test Number</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Stacked Line Chart</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="stacked"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="triangle"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$2:$B$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="100050">
-              <a:solidFill>
-                <a:srgbClr val="00AAAA"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$2:$C$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$D$2:$D$13</f>
-            </numRef>
-          </val>
-          <smooth val="1"/>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Test Number</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Percent Stacked Line Chart</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="percentStacked"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="triangle"/>
-            <spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$2:$B$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="100050">
-              <a:solidFill>
-                <a:srgbClr val="00AAAA"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$2:$C$13</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <val>
-            <numRef>
-              <f>'Sheet'!$D$2:$D$13</f>
-            </numRef>
-          </val>
-          <smooth val="1"/>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Test Number</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="12"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Date Axis</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
           <cat>
             <numRef>
-              <f>'Sheet'!$A$2:$A$13</f>
+              <f>'Sheet'!$A$1:$A$12</f>
             </numRef>
           </cat>
           <val>
@@ -738,7 +208,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet'!$A$2:$A$13</f>
+              <f>'Sheet'!$A$1:$A$12</f>
             </numRef>
           </cat>
           <val>
@@ -770,7 +240,7 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Sheet'!$A$2:$A$13</f>
+              <f>'Sheet'!$A$1:$A$12</f>
             </numRef>
           </cat>
           <val>
@@ -779,11 +249,11 @@
             </numRef>
           </val>
         </ser>
-        <axId val="500"/>
+        <axId val="10"/>
         <axId val="100"/>
       </lineChart>
-      <dateAx>
-        <axId val="500"/>
+      <catAx>
+        <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -797,18 +267,17 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Date</a:t>
+                  <a:t>Mesi</a:t>
                 </a:r>
               </a:p>
             </rich>
           </tx>
         </title>
-        <numFmt formatCode="d-mmm" sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
-        <majorTimeUnit val="days"/>
-      </dateAx>
+        <lblOffset val="100"/>
+      </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
@@ -825,7 +294,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:t>Size</a:t>
+                  <a:t>Euro</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -833,7 +302,7 @@
         </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <crossAx val="500"/>
+        <crossAx val="10"/>
       </valAx>
     </plotArea>
     <legend>
@@ -851,7 +320,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>20</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -864,72 +333,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>43</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>60</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1238,22 +641,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Mesi</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Batch 1</t>
+          <t>Entrate</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Batch 2</t>
+          <t>Uscite</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Batch 3</t>
+          <t>Saldo</t>
         </is>
       </c>
     </row>
@@ -1267,7 +670,7 @@
         <v>102266.604</v>
       </c>
       <c r="C2" t="n">
-        <v>144689.16</v>
+        <v>-144689.16</v>
       </c>
       <c r="D2" t="n">
         <v>-42422.55600000001</v>
@@ -1283,7 +686,7 @@
         <v>77543.88</v>
       </c>
       <c r="C3" t="n">
-        <v>125645.94</v>
+        <v>-125645.94</v>
       </c>
       <c r="D3" t="n">
         <v>-48102.06</v>
@@ -1299,7 +702,7 @@
         <v>77550.48999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>133884.68</v>
+        <v>-133884.68</v>
       </c>
       <c r="D4" t="n">
         <v>-56334.19</v>
@@ -1315,7 +718,7 @@
         <v>100705.39</v>
       </c>
       <c r="C5" t="n">
-        <v>159744.75</v>
+        <v>-159744.75</v>
       </c>
       <c r="D5" t="n">
         <v>-59039.36</v>
@@ -1331,7 +734,7 @@
         <v>107413.59</v>
       </c>
       <c r="C6" t="n">
-        <v>116295.29</v>
+        <v>-116295.29</v>
       </c>
       <c r="D6" t="n">
         <v>-8881.700000000012</v>
@@ -1347,7 +750,7 @@
         <v>58442.47</v>
       </c>
       <c r="C7" t="n">
-        <v>105490.53</v>
+        <v>-105490.53</v>
       </c>
       <c r="D7" t="n">
         <v>-47048.06</v>
@@ -1363,7 +766,7 @@
         <v>59532.41</v>
       </c>
       <c r="C8" t="n">
-        <v>62827.42</v>
+        <v>-62827.42</v>
       </c>
       <c r="D8" t="n">
         <v>-3295.009999999995</v>
@@ -1379,7 +782,7 @@
         <v>66470.95</v>
       </c>
       <c r="C9" t="n">
-        <v>95671.71000000002</v>
+        <v>-95671.71000000002</v>
       </c>
       <c r="D9" t="n">
         <v>-29200.76000000002</v>
@@ -1395,7 +798,7 @@
         <v>78144.25999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>106408.65</v>
+        <v>-106408.65</v>
       </c>
       <c r="D10" t="n">
         <v>-28264.39000000001</v>
@@ -1411,7 +814,7 @@
         <v>97706.60000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>133297.72</v>
+        <v>-133297.72</v>
       </c>
       <c r="D11" t="n">
         <v>-35591.12</v>
@@ -1427,7 +830,7 @@
         <v>70497.86</v>
       </c>
       <c r="C12" t="n">
-        <v>98226.42000000001</v>
+        <v>-98226.42000000001</v>
       </c>
       <c r="D12" t="n">
         <v>-27728.56000000001</v>
@@ -1443,7 +846,7 @@
         <v>102393.39</v>
       </c>
       <c r="C13" t="n">
-        <v>151296.82</v>
+        <v>-151296.82</v>
       </c>
       <c r="D13" t="n">
         <v>-48903.43000000001</v>
